--- a/biology/Botanique/Arboretum_Morgan/Arboretum_Morgan.xlsx
+++ b/biology/Botanique/Arboretum_Morgan/Arboretum_Morgan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’Arboretum Morgan est un arboretum de 245 hectares située sur le Campus MacDonald de l’Université McGill à Sainte-Anne-de-Bellevue, sur la pointe ouest de l’île de Montréal. Il est compris dans le refuge d'oiseaux de Senneville.
@@ -514,9 +526,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille Morgan fait don du terrain à l'université en 1945[1]. Mieux connu comme homme d'affaires et mécène, Cleveland Morgan obtient des diplômes en histoire naturelle et en zoologie à McGill, avant de consacrer sa vie à la collection d'arts décoratifs[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille Morgan fait don du terrain à l'université en 1945. Mieux connu comme homme d'affaires et mécène, Cleveland Morgan obtient des diplômes en histoire naturelle et en zoologie à McGill, avant de consacrer sa vie à la collection d'arts décoratifs.
 </t>
         </is>
       </c>
